--- a/biology/Zoologie/Brassolis_sophorae/Brassolis_sophorae.xlsx
+++ b/biology/Zoologie/Brassolis_sophorae/Brassolis_sophorae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Brassolis sophorae  est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Morphinae, de la tribu des Brassolini.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Chenilles de Brassolis sophorae
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,21 +589,91 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce  Brassolis sophorae a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio sophorae[1].
-C'est l'espèce type pour le genre.
-Synonyme
-Papilio sophorae Protonyme
-Taxinomie
-Liste des sous espèces
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce  Brassolis sophorae a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Papilio sophorae.
+C'est l'espèce type pour le genre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brassolis_sophorae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassolis_sophorae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Papilio sophorae Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brassolis_sophorae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassolis_sophorae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Liste des sous espèces
 Brassolis sophorae sophorae
 Synonymie pour cette sous espèce
 Papilio rufescente-fuscus (Goeze, 1779)
-Brassolis sophorae luridus (Stichel, 1902) [2]
+Brassolis sophorae luridus (Stichel, 1902) 
 Brassolis sophorae vulpeculus (Stichel, 1902)
 Brassolis sophorae ardens (Stichel, 1903)
-Brassolis sophorae laurentii (Brown &amp; Mielke, 1967)[3]
+Brassolis sophorae laurentii (Brown &amp; Mielke, 1967)
 Brassolis sophorae philomela (Stichel, 1925)
 Brassolis sophorae dinizi (d'Almeida, 1956)</t>
         </is>
